--- a/bands.xlsx
+++ b/bands.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/GITREPO/vocoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6565D04C-1A99-C541-8139-BE37C1AF3760}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B527A387-2CDE-D646-A277-F14C801D805E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16560" xr2:uid="{9AF15C12-F13F-DD40-AB91-250BCFB6CE6C}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16560" activeTab="1" xr2:uid="{9AF15C12-F13F-DD40-AB91-250BCFB6CE6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Position" sheetId="2" r:id="rId2"/>
+    <sheet name="Bands" sheetId="1" r:id="rId1"/>
+    <sheet name="Values" sheetId="3" r:id="rId2"/>
+    <sheet name="Position" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="160">
   <si>
     <t>Note</t>
   </si>
@@ -272,6 +273,249 @@
   </si>
   <si>
     <t>Mine</t>
+  </si>
+  <si>
+    <t>Band pass</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>C1 (n)</t>
+  </si>
+  <si>
+    <t>C2 (n)</t>
+  </si>
+  <si>
+    <t>Regular condensator values</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>12n</t>
+  </si>
+  <si>
+    <t>15n</t>
+  </si>
+  <si>
+    <t>18n</t>
+  </si>
+  <si>
+    <t>22n</t>
+  </si>
+  <si>
+    <t>27n</t>
+  </si>
+  <si>
+    <t>33n</t>
+  </si>
+  <si>
+    <t>39n</t>
+  </si>
+  <si>
+    <t>47n</t>
+  </si>
+  <si>
+    <t>56n</t>
+  </si>
+  <si>
+    <t>68n</t>
+  </si>
+  <si>
+    <t>82n</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>120n</t>
+  </si>
+  <si>
+    <t>150n</t>
+  </si>
+  <si>
+    <t>180n</t>
+  </si>
+  <si>
+    <t>220n</t>
+  </si>
+  <si>
+    <t>270n</t>
+  </si>
+  <si>
+    <t>330n</t>
+  </si>
+  <si>
+    <t>390n</t>
+  </si>
+  <si>
+    <t>470n</t>
+  </si>
+  <si>
+    <t>560n</t>
+  </si>
+  <si>
+    <t>680n</t>
+  </si>
+  <si>
+    <t>820n</t>
+  </si>
+  <si>
+    <t>Regular resistor values</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>11k</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>13k</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>16k</t>
+  </si>
+  <si>
+    <t>18k</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>24k</t>
+  </si>
+  <si>
+    <t>27k</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>33k</t>
+  </si>
+  <si>
+    <t>36k</t>
+  </si>
+  <si>
+    <t>39k</t>
+  </si>
+  <si>
+    <t>43k</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>51k</t>
+  </si>
+  <si>
+    <t>56k</t>
+  </si>
+  <si>
+    <t>62k</t>
+  </si>
+  <si>
+    <t>68k</t>
+  </si>
+  <si>
+    <t>75k</t>
+  </si>
+  <si>
+    <t>82k</t>
+  </si>
+  <si>
+    <t>91k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>110k</t>
+  </si>
+  <si>
+    <t>120k</t>
+  </si>
+  <si>
+    <t>130k</t>
+  </si>
+  <si>
+    <t>150k</t>
+  </si>
+  <si>
+    <t>160k</t>
+  </si>
+  <si>
+    <t>180k</t>
+  </si>
+  <si>
+    <t>200k</t>
+  </si>
+  <si>
+    <t>220k</t>
+  </si>
+  <si>
+    <t>240k</t>
+  </si>
+  <si>
+    <t>270k</t>
+  </si>
+  <si>
+    <t>300k</t>
+  </si>
+  <si>
+    <t>330k</t>
+  </si>
+  <si>
+    <t>360k</t>
+  </si>
+  <si>
+    <t>390k</t>
+  </si>
+  <si>
+    <t>430k</t>
+  </si>
+  <si>
+    <t>470k</t>
+  </si>
+  <si>
+    <t>510k</t>
+  </si>
+  <si>
+    <t>560k</t>
+  </si>
+  <si>
+    <t>620k</t>
+  </si>
+  <si>
+    <t>680k</t>
+  </si>
+  <si>
+    <t>750k</t>
+  </si>
+  <si>
+    <t>820k</t>
+  </si>
+  <si>
+    <t>910k</t>
   </si>
 </sst>
 </file>
@@ -645,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE833422-419B-2F49-948A-0FCADFD469A4}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2999,6 +3243,348 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC38B212-6D9E-204F-957E-C4F18C1FBF5B}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1">
+        <f>POWER(10,-9)</f>
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>33000</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>120000</v>
+      </c>
+      <c r="F3">
+        <f>1/(2*PI()*SQRT(A3*$B$1*$B$1*B3*E3*(C3*D3/(C3+D3))))</f>
+        <v>155.59034733832456</v>
+      </c>
+      <c r="G3">
+        <f>E3/(2*SQRT(E3*(C3*D3/(C3+D3))))</f>
+        <v>3.9886201760873279</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>130</v>
+      </c>
+      <c r="O20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>133</v>
+      </c>
+      <c r="O23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>135</v>
+      </c>
+      <c r="O25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E455EF-194A-FA40-BB7F-063FF8EEA823}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -3068,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>POWER(2,B2/12)</f>
+        <f t="shared" ref="I2:I14" si="0">POWER(2,B2/12)</f>
         <v>1</v>
       </c>
       <c r="J2" t="s">
@@ -3102,7 +3688,7 @@
         <v>1.0666666666666667</v>
       </c>
       <c r="I3">
-        <f>POWER(2,B3/12)</f>
+        <f t="shared" si="0"/>
         <v>1.0594630943592953</v>
       </c>
       <c r="J3" t="s">
@@ -3136,7 +3722,7 @@
         <v>1.125</v>
       </c>
       <c r="I4">
-        <f>POWER(2,B4/12)</f>
+        <f t="shared" si="0"/>
         <v>1.122462048309373</v>
       </c>
       <c r="J4" t="s">
@@ -3170,7 +3756,7 @@
         <v>1.2</v>
       </c>
       <c r="I5">
-        <f>POWER(2,B5/12)</f>
+        <f t="shared" si="0"/>
         <v>1.189207115002721</v>
       </c>
       <c r="J5" t="s">
@@ -3204,7 +3790,7 @@
         <v>1.25</v>
       </c>
       <c r="I6">
-        <f>POWER(2,B6/12)</f>
+        <f t="shared" si="0"/>
         <v>1.2599210498948732</v>
       </c>
       <c r="J6" t="s">
@@ -3238,7 +3824,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="I7">
-        <f>POWER(2,B7/12)</f>
+        <f t="shared" si="0"/>
         <v>1.3348398541700344</v>
       </c>
       <c r="J7" t="s">
@@ -3257,7 +3843,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="I8">
-        <f>POWER(2,B8/12)</f>
+        <f t="shared" si="0"/>
         <v>1.4142135623730951</v>
       </c>
       <c r="J8" t="s">
@@ -3291,7 +3877,7 @@
         <v>1.5</v>
       </c>
       <c r="I9">
-        <f>POWER(2,B9/12)</f>
+        <f t="shared" si="0"/>
         <v>1.4983070768766815</v>
       </c>
       <c r="J9" t="s">
@@ -3325,7 +3911,7 @@
         <v>1.6</v>
       </c>
       <c r="I10">
-        <f>POWER(2,B10/12)</f>
+        <f t="shared" si="0"/>
         <v>1.5874010519681994</v>
       </c>
       <c r="J10" t="s">
@@ -3359,7 +3945,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="I11">
-        <f>POWER(2,B11/12)</f>
+        <f t="shared" si="0"/>
         <v>1.681792830507429</v>
       </c>
       <c r="J11" t="s">
@@ -3393,7 +3979,7 @@
         <v>1.8</v>
       </c>
       <c r="I12">
-        <f>POWER(2,B12/12)</f>
+        <f t="shared" si="0"/>
         <v>1.7817974362806785</v>
       </c>
       <c r="J12" t="s">
@@ -3427,7 +4013,7 @@
         <v>1.875</v>
       </c>
       <c r="I13">
-        <f>POWER(2,B13/12)</f>
+        <f t="shared" si="0"/>
         <v>1.8877486253633868</v>
       </c>
       <c r="J13" t="s">
@@ -3455,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <f>POWER(2,B14/12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>

--- a/bands.xlsx
+++ b/bands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/GITREPO/vocoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B527A387-2CDE-D646-A277-F14C801D805E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCFCB37-DD7A-264D-832D-D401553719C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16560" activeTab="1" xr2:uid="{9AF15C12-F13F-DD40-AB91-250BCFB6CE6C}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="1" xr2:uid="{9AF15C12-F13F-DD40-AB91-250BCFB6CE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bands" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="162">
   <si>
     <t>Note</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>910k</t>
+  </si>
+  <si>
+    <t>Sallen-Key low pass</t>
+  </si>
+  <si>
+    <t>Sallen-Key high pass</t>
   </si>
 </sst>
 </file>
@@ -889,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE833422-419B-2F49-948A-0FCADFD469A4}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -3247,7 +3253,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3320,15 +3326,15 @@
         <v>2000</v>
       </c>
       <c r="E3">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="F3">
         <f>1/(2*PI()*SQRT(A3*$B$1*$B$1*B3*E3*(C3*D3/(C3+D3))))</f>
-        <v>155.59034733832456</v>
+        <v>120.51976481439172</v>
       </c>
       <c r="G3">
         <f>E3/(2*SQRT(E3*(C3*D3/(C3+D3))))</f>
-        <v>3.9886201760873279</v>
+        <v>5.1492865054443726</v>
       </c>
       <c r="K3" t="s">
         <v>88</v>
@@ -3358,6 +3364,9 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="K5" t="s">
         <v>90</v>
       </c>
@@ -3372,6 +3381,24 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
       <c r="K6" t="s">
         <v>91</v>
       </c>
@@ -3386,6 +3413,26 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B7">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>150000</v>
+      </c>
+      <c r="D7">
+        <v>150000</v>
+      </c>
+      <c r="F7">
+        <f>1/(2*PI()*SQRT(C7*$B$1*A7*$B$1*D7*B7))</f>
+        <v>171.94137788983227</v>
+      </c>
+      <c r="G7">
+        <f>SQRT(B7/A7)/2</f>
+        <v>5.5097316501933973</v>
+      </c>
       <c r="K7" t="s">
         <v>92</v>
       </c>
@@ -3414,6 +3461,9 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="K9" t="s">
         <v>94</v>
       </c>
@@ -3428,6 +3478,24 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
       <c r="K10" t="s">
         <v>95</v>
       </c>
@@ -3442,6 +3510,26 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3300</v>
+      </c>
+      <c r="D11">
+        <v>150000</v>
+      </c>
+      <c r="F11">
+        <f>1/(2*PI()*SQRT(C11*$B$1*A11*$B$1*D11*B11))</f>
+        <v>7153.4827161933972</v>
+      </c>
+      <c r="G11">
+        <f>SQRT(D11/C11)/2</f>
+        <v>3.3709993123162105</v>
+      </c>
       <c r="K11" t="s">
         <v>96</v>
       </c>
